--- a/Code/Results/Cases/Case_0_231/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_231/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06988174552855497</v>
+        <v>0.1506834993901052</v>
       </c>
       <c r="D2">
-        <v>0.03690383616203619</v>
+        <v>0.1005736726637849</v>
       </c>
       <c r="E2">
-        <v>0.06545856493643143</v>
+        <v>0.1396915254104059</v>
       </c>
       <c r="F2">
-        <v>2.083439316038579</v>
+        <v>2.447612376704498</v>
       </c>
       <c r="G2">
-        <v>0.0007758628556879911</v>
+        <v>0.002499528841394606</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.516448778788401</v>
+        <v>1.746282104336743</v>
       </c>
       <c r="J2">
-        <v>0.1132850897512014</v>
+        <v>0.2074473435009168</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09981522925681929</v>
+        <v>0.2117037805257098</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
-        <v>6.189920432350505</v>
+        <v>6.773999207379518</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06617312028616595</v>
+        <v>0.1506001191993676</v>
       </c>
       <c r="D3">
-        <v>0.0360746451371341</v>
+        <v>0.1007978339275439</v>
       </c>
       <c r="E3">
-        <v>0.06186289771463827</v>
+        <v>0.1396102605363012</v>
       </c>
       <c r="F3">
-        <v>1.870685151757471</v>
+        <v>2.411058583748812</v>
       </c>
       <c r="G3">
-        <v>0.0007830580452200604</v>
+        <v>0.002504394110527009</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.359899910377891</v>
+        <v>1.719032899959458</v>
       </c>
       <c r="J3">
-        <v>0.1052805636820153</v>
+        <v>0.2067835050896321</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.09422732018985158</v>
+        <v>0.2115744371489257</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
-        <v>5.533926589584155</v>
+        <v>6.656197380233266</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06398562475823866</v>
+        <v>0.1506033809586</v>
       </c>
       <c r="D4">
-        <v>0.03560035540515827</v>
+        <v>0.100960746591749</v>
       </c>
       <c r="E4">
-        <v>0.05974525834162669</v>
+        <v>0.1396130617121685</v>
       </c>
       <c r="F4">
-        <v>1.7433867241229</v>
+        <v>2.389927942158664</v>
       </c>
       <c r="G4">
-        <v>0.0007876112721074002</v>
+        <v>0.002507542966394094</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.266211477833849</v>
+        <v>1.70324719800395</v>
       </c>
       <c r="J4">
-        <v>0.1005404383699329</v>
+        <v>0.2064653220325283</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.09093907452369621</v>
+        <v>0.2115765548513195</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
-        <v>5.141142797315467</v>
+        <v>6.587612858722366</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06311539374394926</v>
+        <v>0.1506184217764712</v>
       </c>
       <c r="D5">
-        <v>0.03541547328828187</v>
+        <v>0.1010335045919994</v>
       </c>
       <c r="E5">
-        <v>0.05890353708162444</v>
+        <v>0.1396274676000235</v>
       </c>
       <c r="F5">
-        <v>1.692271432398584</v>
+        <v>2.381646935565811</v>
       </c>
       <c r="G5">
-        <v>0.0007895019382488905</v>
+        <v>0.002508866912270074</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.228586779400118</v>
+        <v>1.697051819144448</v>
       </c>
       <c r="J5">
-        <v>0.0986494529327544</v>
+        <v>0.2063581490954505</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08963264987290387</v>
+        <v>0.2115979369358953</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>4.983351621997826</v>
+        <v>6.560604663501977</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06297213496792153</v>
+        <v>0.1506217479726928</v>
       </c>
       <c r="D6">
-        <v>0.03538527062453056</v>
+        <v>0.1010459711264282</v>
       </c>
       <c r="E6">
-        <v>0.05876501265036715</v>
+        <v>0.1396306612126121</v>
       </c>
       <c r="F6">
-        <v>1.683827489540931</v>
+        <v>2.380291794617818</v>
       </c>
       <c r="G6">
-        <v>0.0007898180395686721</v>
+        <v>0.002509089218164611</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.222371086440361</v>
+        <v>1.696037412083456</v>
       </c>
       <c r="J6">
-        <v>0.09833782061181751</v>
+        <v>0.2063417115617412</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08941768114232929</v>
+        <v>0.2116027272131902</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>4.957280947850506</v>
+        <v>6.556176738047782</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06397380442221134</v>
+        <v>0.1506035282615699</v>
       </c>
       <c r="D7">
-        <v>0.03559782849283621</v>
+        <v>0.1009617020222358</v>
       </c>
       <c r="E7">
-        <v>0.05973382242820691</v>
+        <v>0.1396132022703185</v>
       </c>
       <c r="F7">
-        <v>1.742694388151861</v>
+        <v>2.389814926386919</v>
       </c>
       <c r="G7">
-        <v>0.0007876366263336321</v>
+        <v>0.002507560656470031</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.265701887655339</v>
+        <v>1.703162684060757</v>
       </c>
       <c r="J7">
-        <v>0.1005147754188087</v>
+        <v>0.2064637855957656</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.090921322691635</v>
+        <v>0.2115767601141911</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851395496</v>
       </c>
       <c r="O7">
-        <v>5.139005881313778</v>
+        <v>6.58724481047858</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06858357175176621</v>
+        <v>0.1506434575360345</v>
       </c>
       <c r="D8">
-        <v>0.03661047168851894</v>
+        <v>0.1006457254056166</v>
       </c>
       <c r="E8">
-        <v>0.06419918292346694</v>
+        <v>0.1396525751937041</v>
       </c>
       <c r="F8">
-        <v>2.009340698143589</v>
+        <v>2.434735744743548</v>
       </c>
       <c r="G8">
-        <v>0.000778316385064726</v>
+        <v>0.002501172935996968</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.461929526980711</v>
+        <v>1.736690154748274</v>
       </c>
       <c r="J8">
-        <v>0.1104868227949964</v>
+        <v>0.2071998956376149</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09785742784629292</v>
+        <v>0.2116422695766076</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209825</v>
       </c>
       <c r="O8">
-        <v>5.961506181163315</v>
+        <v>6.732602645548809</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07840072833000988</v>
+        <v>0.1511532265322515</v>
       </c>
       <c r="D9">
-        <v>0.03889083897981394</v>
+        <v>0.1002260900633232</v>
       </c>
       <c r="E9">
-        <v>0.07374132814616274</v>
+        <v>0.1401475027033179</v>
       </c>
       <c r="F9">
-        <v>2.562571834199844</v>
+        <v>2.533273707637761</v>
       </c>
       <c r="G9">
-        <v>0.0007610566740650917</v>
+        <v>0.002489922381588402</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.868903270756888</v>
+        <v>1.809958868860932</v>
       </c>
       <c r="J9">
-        <v>0.1315903370711382</v>
+        <v>0.2093530118713858</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1127074550671594</v>
+        <v>0.212417194507708</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550789</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>7.665823836666959</v>
+        <v>7.047465294632445</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08618935428955155</v>
+        <v>0.1517901743450381</v>
       </c>
       <c r="D10">
-        <v>0.04077394065873818</v>
+        <v>0.100039000092309</v>
       </c>
       <c r="E10">
-        <v>0.08133960565345077</v>
+        <v>0.1407654421211291</v>
       </c>
       <c r="F10">
-        <v>2.993540434596241</v>
+        <v>2.612086996391866</v>
       </c>
       <c r="G10">
-        <v>0.000748909295402012</v>
+        <v>0.002482425708846821</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.185856089562492</v>
+        <v>1.868410920623177</v>
       </c>
       <c r="J10">
-        <v>0.148289955897738</v>
+        <v>0.2113681746737512</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1245573766360764</v>
+        <v>0.2133803393411284</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>8.992366192604209</v>
+        <v>7.297133943381823</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08988324810891868</v>
+        <v>0.1521368116117472</v>
       </c>
       <c r="D11">
-        <v>0.04168284041216097</v>
+        <v>0.09998006562749495</v>
       </c>
       <c r="E11">
-        <v>0.08495124761963879</v>
+        <v>0.1411017313729168</v>
       </c>
       <c r="F11">
-        <v>3.196444560549651</v>
+        <v>2.649345923571275</v>
       </c>
       <c r="G11">
-        <v>0.0007434772458133851</v>
+        <v>0.002479180446426241</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.335066566607836</v>
+        <v>1.896014281248483</v>
       </c>
       <c r="J11">
-        <v>0.1562100327700477</v>
+        <v>0.2123791936030059</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.130197347057468</v>
+        <v>0.2139039825388735</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>9.616726862494033</v>
+        <v>7.414734569018833</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09130610844873388</v>
+        <v>0.1522762418229675</v>
       </c>
       <c r="D12">
-        <v>0.04203520530769467</v>
+        <v>0.09996150009044413</v>
       </c>
       <c r="E12">
-        <v>0.08634376576524971</v>
+        <v>0.1412370034830523</v>
       </c>
       <c r="F12">
-        <v>3.274408707386641</v>
+        <v>2.663657843630489</v>
       </c>
       <c r="G12">
-        <v>0.0007414317394701154</v>
+        <v>0.002477975138054288</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.392397744899867</v>
+        <v>1.906613189990537</v>
       </c>
       <c r="J12">
-        <v>0.1592616593076599</v>
+        <v>0.2127756097624669</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1323731705899363</v>
+        <v>0.214114560421244</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>9.856610474809088</v>
+        <v>7.459848082973167</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09099855911051691</v>
+        <v>0.1522458500570281</v>
       </c>
       <c r="D13">
-        <v>0.04195894172912062</v>
+        <v>0.09996533184503775</v>
       </c>
       <c r="E13">
-        <v>0.08604271218143111</v>
+        <v>0.1412075178115657</v>
       </c>
       <c r="F13">
-        <v>3.25756506866523</v>
+        <v>2.660566488450826</v>
       </c>
       <c r="G13">
-        <v>0.0007418717989762985</v>
+        <v>0.002478233675257502</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.380011789861271</v>
+        <v>1.904324020137452</v>
       </c>
       <c r="J13">
-        <v>0.1586020008151294</v>
+        <v>0.2126896310699422</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1319027124263386</v>
+        <v>0.2140686624518224</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>9.804786066801796</v>
+        <v>7.450106222564614</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0899998108677309</v>
+        <v>0.1521481190352105</v>
       </c>
       <c r="D14">
-        <v>0.04171166154782924</v>
+        <v>0.09997846310781</v>
       </c>
       <c r="E14">
-        <v>0.08506529684133568</v>
+        <v>0.1411127014784341</v>
       </c>
       <c r="F14">
-        <v>3.202835215073776</v>
+        <v>2.65051930683893</v>
       </c>
       <c r="G14">
-        <v>0.0007433087426527152</v>
+        <v>0.002479080812708475</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.339765985081684</v>
+        <v>1.89688332907707</v>
       </c>
       <c r="J14">
-        <v>0.1564600037084176</v>
+        <v>0.2124115351094105</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1303755239357898</v>
+        <v>0.2139210607405175</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>9.636390313236859</v>
+        <v>7.41843443562874</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08939125748418064</v>
+        <v>0.1520893190332231</v>
       </c>
       <c r="D15">
-        <v>0.04156128231472067</v>
+        <v>0.09998699460826543</v>
       </c>
       <c r="E15">
-        <v>0.08446992113532303</v>
+        <v>0.1410556557639175</v>
       </c>
       <c r="F15">
-        <v>3.169463135142053</v>
+        <v>2.644391541257505</v>
       </c>
       <c r="G15">
-        <v>0.0007441903455895823</v>
+        <v>0.002479602778810161</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.315225497442157</v>
+        <v>1.892344731923515</v>
       </c>
       <c r="J15">
-        <v>0.155154990419021</v>
+        <v>0.212242960010343</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1294454315891187</v>
+        <v>0.2138322500946614</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>9.533706690492693</v>
+        <v>7.399110234349791</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08595118157973758</v>
+        <v>0.1517686642803397</v>
       </c>
       <c r="D16">
-        <v>0.04071564904341329</v>
+        <v>0.100043377243221</v>
       </c>
       <c r="E16">
-        <v>0.08110691043733809</v>
+        <v>0.1407445745287284</v>
       </c>
       <c r="F16">
-        <v>2.980429953735552</v>
+        <v>2.609680383338599</v>
       </c>
       <c r="G16">
-        <v>0.0007492660149510657</v>
+        <v>0.002482641103866756</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.176214731346562</v>
+        <v>1.866627400008156</v>
       </c>
       <c r="J16">
-        <v>0.1477793611625842</v>
+        <v>0.2113040002660753</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1241941599571419</v>
+        <v>0.2133478377320159</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>8.952020364007524</v>
+        <v>7.289529623125077</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08388104294010645</v>
+        <v>0.1515865128976159</v>
       </c>
       <c r="D17">
-        <v>0.04021071887161654</v>
+        <v>0.1000846612311186</v>
       </c>
       <c r="E17">
-        <v>0.07908528023539674</v>
+        <v>0.1405678641227261</v>
       </c>
       <c r="F17">
-        <v>2.866316438494124</v>
+        <v>2.588746795704679</v>
       </c>
       <c r="G17">
-        <v>0.0007524024555686193</v>
+        <v>0.002484547191223119</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.092294941932636</v>
+        <v>1.851110453494584</v>
       </c>
       <c r="J17">
-        <v>0.1433414986521484</v>
+        <v>0.2107521364256755</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1210394062393121</v>
+        <v>0.2130725588641837</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
-        <v>8.600830594034733</v>
+        <v>7.223337734753272</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08270439196349599</v>
+        <v>0.1514870994838873</v>
       </c>
       <c r="D18">
-        <v>0.03992517171067078</v>
+        <v>0.1001108709945164</v>
       </c>
       <c r="E18">
-        <v>0.0779369260519438</v>
+        <v>0.1404714198056887</v>
       </c>
       <c r="F18">
-        <v>2.801317027524448</v>
+        <v>2.57683869061799</v>
       </c>
       <c r="G18">
-        <v>0.0007542154194798423</v>
+        <v>0.002485659061408373</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.044492663260016</v>
+        <v>1.842280860830556</v>
       </c>
       <c r="J18">
-        <v>0.1408189953687682</v>
+        <v>0.2104435957162707</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.119248068159898</v>
+        <v>0.2129222743098111</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>8.400774115235663</v>
+        <v>7.185644656866771</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08230834095682837</v>
+        <v>0.1514543600112503</v>
       </c>
       <c r="D19">
-        <v>0.03982930857161193</v>
+        <v>0.1001201687867272</v>
       </c>
       <c r="E19">
-        <v>0.07755051880064201</v>
+        <v>0.1404396579129354</v>
       </c>
       <c r="F19">
-        <v>2.77941442788196</v>
+        <v>2.572829524297447</v>
       </c>
       <c r="G19">
-        <v>0.0007548308551619576</v>
+        <v>0.002486038194566389</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.028384680295957</v>
+        <v>1.839307675528005</v>
       </c>
       <c r="J19">
-        <v>0.1399699073850798</v>
+        <v>0.2103406536367132</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.118645414199662</v>
+        <v>0.2128727731990097</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
-        <v>8.333358665714002</v>
+        <v>7.172947420900641</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08409994345876726</v>
+        <v>0.1516053490774141</v>
       </c>
       <c r="D20">
-        <v>0.04026396037883373</v>
+        <v>0.100080011521662</v>
       </c>
       <c r="E20">
-        <v>0.07929897473884751</v>
+        <v>0.1405861376677429</v>
       </c>
       <c r="F20">
-        <v>2.878397244568589</v>
+        <v>2.59096151124956</v>
       </c>
       <c r="G20">
-        <v>0.0007520676618473113</v>
+        <v>0.002484342677554566</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.101179375345964</v>
+        <v>1.852752388202575</v>
       </c>
       <c r="J20">
-        <v>0.1438107668507271</v>
+        <v>0.2108099645390737</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1213728056993517</v>
+        <v>0.2131010298467189</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.957806003280837</v>
       </c>
       <c r="O20">
-        <v>8.638011651066677</v>
+        <v>7.230344762001494</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09029249411403839</v>
+        <v>0.1521766034877317</v>
       </c>
       <c r="D21">
-        <v>0.04178406589137751</v>
+        <v>0.09997450441448663</v>
       </c>
       <c r="E21">
-        <v>0.0853516906719598</v>
+        <v>0.1411403362758747</v>
       </c>
       <c r="F21">
-        <v>3.218878839926191</v>
+        <v>2.653464900058424</v>
       </c>
       <c r="G21">
-        <v>0.0007428863827196616</v>
+        <v>0.002478831348389102</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.351563766883899</v>
+        <v>1.89906487153209</v>
       </c>
       <c r="J21">
-        <v>0.1570876851751279</v>
+        <v>0.2124928504470347</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1308229720445553</v>
+        <v>0.213964081588955</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571254</v>
       </c>
       <c r="O21">
-        <v>9.685754735354124</v>
+        <v>7.427721431513589</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09448124239021638</v>
+        <v>0.1525975438852925</v>
       </c>
       <c r="D22">
-        <v>0.04282561656518169</v>
+        <v>0.09992741150920281</v>
       </c>
       <c r="E22">
-        <v>0.08945384523668665</v>
+        <v>0.1415487359093213</v>
       </c>
       <c r="F22">
-        <v>3.448061747678764</v>
+        <v>2.695496654110883</v>
       </c>
       <c r="G22">
-        <v>0.0007369517751849954</v>
+        <v>0.002475366889393245</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.520091484776714</v>
+        <v>1.930184627031252</v>
       </c>
       <c r="J22">
-        <v>0.1660740297182528</v>
+        <v>0.2136717843445766</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1372352054304571</v>
+        <v>0.2145997413840419</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.673791817957863</v>
       </c>
       <c r="O22">
-        <v>10.39088163052929</v>
+        <v>7.560104227502791</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09223181951863069</v>
+        <v>0.1523685298813149</v>
       </c>
       <c r="D23">
-        <v>0.0422650804881286</v>
+        <v>0.09995054944541693</v>
       </c>
       <c r="E23">
-        <v>0.08725013275571314</v>
+        <v>0.1413265410027016</v>
       </c>
       <c r="F23">
-        <v>3.325081381316807</v>
+        <v>2.672955164908416</v>
       </c>
       <c r="G23">
-        <v>0.0007401138810521938</v>
+        <v>0.002477203395437</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.429659643808051</v>
+        <v>1.91349734214549</v>
       </c>
       <c r="J23">
-        <v>0.1612474014573522</v>
+        <v>0.2130353288470346</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1337897513686386</v>
+        <v>0.2142539289425258</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
-        <v>10.01251722339538</v>
+        <v>7.489138602731657</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0840009366634149</v>
+        <v>0.1515968167070838</v>
       </c>
       <c r="D24">
-        <v>0.04023987516657002</v>
+        <v>0.100082105944491</v>
       </c>
       <c r="E24">
-        <v>0.07920232032322616</v>
+        <v>0.1405778601597945</v>
       </c>
       <c r="F24">
-        <v>2.872933635284824</v>
+        <v>2.589959843127247</v>
       </c>
       <c r="G24">
-        <v>0.0007522189915321315</v>
+        <v>0.002484435088424433</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.097161346839343</v>
+        <v>1.852009785137966</v>
       </c>
       <c r="J24">
-        <v>0.1435985211763224</v>
+        <v>0.2107837932473444</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1212220064334062</v>
+        <v>0.2130881332683714</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>8.621196374527699</v>
+        <v>7.227175759008787</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07565175667287605</v>
+        <v>0.1509691936213926</v>
       </c>
       <c r="D25">
-        <v>0.03823967154588814</v>
+        <v>0.1003182753274245</v>
       </c>
       <c r="E25">
-        <v>0.07106524272076342</v>
+        <v>0.1399689281676899</v>
       </c>
       <c r="F25">
-        <v>2.409076399561584</v>
+        <v>2.505493110964139</v>
       </c>
       <c r="G25">
-        <v>0.0007656254526895671</v>
+        <v>0.002492830271350055</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.756002217701919</v>
+        <v>1.789328805967443</v>
       </c>
       <c r="J25">
-        <v>0.1256911536933103</v>
+        <v>0.208694501666173</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1085391331382439</v>
+        <v>0.2121383810424433</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>7.193165321934714</v>
+        <v>6.959077938266944</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_231/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_231/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1506834993901052</v>
+        <v>0.06988174552878945</v>
       </c>
       <c r="D2">
-        <v>0.1005736726637849</v>
+        <v>0.03690383616213566</v>
       </c>
       <c r="E2">
-        <v>0.1396915254104059</v>
+        <v>0.06545856493641722</v>
       </c>
       <c r="F2">
-        <v>2.447612376704498</v>
+        <v>2.083439316038579</v>
       </c>
       <c r="G2">
-        <v>0.002499528841394606</v>
+        <v>0.0007758628556667412</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.746282104336743</v>
+        <v>1.516448778788401</v>
       </c>
       <c r="J2">
-        <v>0.2074473435009168</v>
+        <v>0.1132850897511943</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2117037805257098</v>
+        <v>0.09981522925676245</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>6.773999207379518</v>
+        <v>6.189920432350561</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1506001191993676</v>
+        <v>0.0661731202858391</v>
       </c>
       <c r="D3">
-        <v>0.1007978339275439</v>
+        <v>0.03607464513701331</v>
       </c>
       <c r="E3">
-        <v>0.1396102605363012</v>
+        <v>0.06186289771464892</v>
       </c>
       <c r="F3">
-        <v>2.411058583748812</v>
+        <v>1.870685151757485</v>
       </c>
       <c r="G3">
-        <v>0.002504394110527009</v>
+        <v>0.0007830580452649297</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.719032899959458</v>
+        <v>1.359899910377891</v>
       </c>
       <c r="J3">
-        <v>0.2067835050896321</v>
+        <v>0.1052805636820722</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2115744371489257</v>
+        <v>0.09422732018983737</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>6.656197380233266</v>
+        <v>5.533926589584212</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1506033809586</v>
+        <v>0.06398562475817471</v>
       </c>
       <c r="D4">
-        <v>0.100960746591749</v>
+        <v>0.0356003554053359</v>
       </c>
       <c r="E4">
-        <v>0.1396130617121685</v>
+        <v>0.05974525834162669</v>
       </c>
       <c r="F4">
-        <v>2.389927942158664</v>
+        <v>1.7433867241229</v>
       </c>
       <c r="G4">
-        <v>0.002507542966394094</v>
+        <v>0.0007876112720786934</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.70324719800395</v>
+        <v>1.266211477833863</v>
       </c>
       <c r="J4">
-        <v>0.2064653220325283</v>
+        <v>0.1005404383699897</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2115765548513195</v>
+        <v>0.09093907452370331</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>6.587612858722366</v>
+        <v>5.141142797315467</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1506184217764712</v>
+        <v>0.06311539374355135</v>
       </c>
       <c r="D5">
-        <v>0.1010335045919994</v>
+        <v>0.03541547328839556</v>
       </c>
       <c r="E5">
-        <v>0.1396274676000235</v>
+        <v>0.05890353708162266</v>
       </c>
       <c r="F5">
-        <v>2.381646935565811</v>
+        <v>1.692271432398584</v>
       </c>
       <c r="G5">
-        <v>0.002508866912270074</v>
+        <v>0.0007895019383221268</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.697051819144448</v>
+        <v>1.228586779400118</v>
       </c>
       <c r="J5">
-        <v>0.2063581490954505</v>
+        <v>0.09864945293276151</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2115979369358953</v>
+        <v>0.08963264987296071</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>6.560604663501977</v>
+        <v>4.983351621997826</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1506217479726928</v>
+        <v>0.06297213496792864</v>
       </c>
       <c r="D6">
-        <v>0.1010459711264282</v>
+        <v>0.03538527062455898</v>
       </c>
       <c r="E6">
-        <v>0.1396306612126121</v>
+        <v>0.05876501265036005</v>
       </c>
       <c r="F6">
-        <v>2.380291794617818</v>
+        <v>1.683827489540931</v>
       </c>
       <c r="G6">
-        <v>0.002509089218164611</v>
+        <v>0.0007898180395820437</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.696037412083456</v>
+        <v>1.222371086440361</v>
       </c>
       <c r="J6">
-        <v>0.2063417115617412</v>
+        <v>0.09833782061186724</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2116027272131902</v>
+        <v>0.08941768114230797</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>6.556176738047782</v>
+        <v>4.95728094785062</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1506035282615699</v>
+        <v>0.06397380442209766</v>
       </c>
       <c r="D7">
-        <v>0.1009617020222358</v>
+        <v>0.03559782849285753</v>
       </c>
       <c r="E7">
-        <v>0.1396132022703185</v>
+        <v>0.05973382242820335</v>
       </c>
       <c r="F7">
-        <v>2.389814926386919</v>
+        <v>1.742694388151847</v>
       </c>
       <c r="G7">
-        <v>0.002507560656470031</v>
+        <v>0.0007876366263623423</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.703162684060757</v>
+        <v>1.265701887655325</v>
       </c>
       <c r="J7">
-        <v>0.2064637855957656</v>
+        <v>0.1005147754187377</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2115767601141911</v>
+        <v>0.09092132269157105</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851395496</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>6.58724481047858</v>
+        <v>5.139005881313665</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1506434575360345</v>
+        <v>0.06858357175132568</v>
       </c>
       <c r="D8">
-        <v>0.1006457254056166</v>
+        <v>0.03661047168863618</v>
       </c>
       <c r="E8">
-        <v>0.1396525751937041</v>
+        <v>0.06419918292347049</v>
       </c>
       <c r="F8">
-        <v>2.434735744743548</v>
+        <v>2.009340698143589</v>
       </c>
       <c r="G8">
-        <v>0.002501172935996968</v>
+        <v>0.0007783163850457696</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.736690154748274</v>
+        <v>1.461929526980725</v>
       </c>
       <c r="J8">
-        <v>0.2071998956376149</v>
+        <v>0.1104868227949893</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2116422695766076</v>
+        <v>0.09785742784634976</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209825</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>6.732602645548809</v>
+        <v>5.961506181163372</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1511532265322515</v>
+        <v>0.07840072833020884</v>
       </c>
       <c r="D9">
-        <v>0.1002260900633232</v>
+        <v>0.03889083897992407</v>
       </c>
       <c r="E9">
-        <v>0.1401475027033179</v>
+        <v>0.07374132814613077</v>
       </c>
       <c r="F9">
-        <v>2.533273707637761</v>
+        <v>2.562571834199844</v>
       </c>
       <c r="G9">
-        <v>0.002489922381588402</v>
+        <v>0.0007610566740623857</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.809958868860932</v>
+        <v>1.86890327075686</v>
       </c>
       <c r="J9">
-        <v>0.2093530118713858</v>
+        <v>0.1315903370710743</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.212417194507708</v>
+        <v>0.1127074550672162</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
-        <v>7.047465294632445</v>
+        <v>7.665823836666959</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1517901743450381</v>
+        <v>0.08618935428956576</v>
       </c>
       <c r="D10">
-        <v>0.100039000092309</v>
+        <v>0.04077394065874174</v>
       </c>
       <c r="E10">
-        <v>0.1407654421211291</v>
+        <v>0.08133960565339038</v>
       </c>
       <c r="F10">
-        <v>2.612086996391866</v>
+        <v>2.993540434596241</v>
       </c>
       <c r="G10">
-        <v>0.002482425708846821</v>
+        <v>0.0007489092954606087</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.868410920623177</v>
+        <v>2.185856089562492</v>
       </c>
       <c r="J10">
-        <v>0.2113681746737512</v>
+        <v>0.1482899558977451</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2133803393411284</v>
+        <v>0.124557376636254</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837536</v>
       </c>
       <c r="O10">
-        <v>7.297133943381823</v>
+        <v>8.992366192604209</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1521368116117472</v>
+        <v>0.08988324810916026</v>
       </c>
       <c r="D11">
-        <v>0.09998006562749495</v>
+        <v>0.04168284041193004</v>
       </c>
       <c r="E11">
-        <v>0.1411017313729168</v>
+        <v>0.08495124761961037</v>
       </c>
       <c r="F11">
-        <v>2.649345923571275</v>
+        <v>3.196444560549622</v>
       </c>
       <c r="G11">
-        <v>0.002479180446426241</v>
+        <v>0.0007434772457586868</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.896014281248483</v>
+        <v>2.335066566607807</v>
       </c>
       <c r="J11">
-        <v>0.2123791936030059</v>
+        <v>0.1562100327699412</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2139039825388735</v>
+        <v>0.1301973470573401</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731763</v>
       </c>
       <c r="O11">
-        <v>7.414734569018833</v>
+        <v>9.616726862494033</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1522762418229675</v>
+        <v>0.09130610844850651</v>
       </c>
       <c r="D12">
-        <v>0.09996150009044413</v>
+        <v>0.04203520530769822</v>
       </c>
       <c r="E12">
-        <v>0.1412370034830523</v>
+        <v>0.08634376576521063</v>
       </c>
       <c r="F12">
-        <v>2.663657843630489</v>
+        <v>3.274408707386641</v>
       </c>
       <c r="G12">
-        <v>0.002477975138054288</v>
+        <v>0.000741431739298697</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.906613189990537</v>
+        <v>2.392397744899867</v>
       </c>
       <c r="J12">
-        <v>0.2127756097624669</v>
+        <v>0.1592616593075604</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.214114560421244</v>
+        <v>0.1323731705898794</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>7.459848082973167</v>
+        <v>9.856610474809145</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1522458500570281</v>
+        <v>0.09099855911053112</v>
       </c>
       <c r="D13">
-        <v>0.09996533184503775</v>
+        <v>0.04195894172936221</v>
       </c>
       <c r="E13">
-        <v>0.1412075178115657</v>
+        <v>0.08604271218145954</v>
       </c>
       <c r="F13">
-        <v>2.660566488450826</v>
+        <v>3.257565068665258</v>
       </c>
       <c r="G13">
-        <v>0.002478233675257502</v>
+        <v>0.0007418717989754397</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.904324020137452</v>
+        <v>2.3800117898613</v>
       </c>
       <c r="J13">
-        <v>0.2126896310699422</v>
+        <v>0.1586020008151365</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2140686624518224</v>
+        <v>0.1319027124262746</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>7.450106222564614</v>
+        <v>9.804786066801796</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1521481190352105</v>
+        <v>0.08999981086817144</v>
       </c>
       <c r="D14">
-        <v>0.09997846310781</v>
+        <v>0.04171166154782924</v>
       </c>
       <c r="E14">
-        <v>0.1411127014784341</v>
+        <v>0.08506529684130371</v>
       </c>
       <c r="F14">
-        <v>2.65051930683893</v>
+        <v>3.202835215073776</v>
       </c>
       <c r="G14">
-        <v>0.002479080812708475</v>
+        <v>0.0007433087427186119</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.89688332907707</v>
+        <v>2.339765985081684</v>
       </c>
       <c r="J14">
-        <v>0.2124115351094105</v>
+        <v>0.1564600037084247</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2139210607405175</v>
+        <v>0.1303755239355482</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>7.41843443562874</v>
+        <v>9.636390313236859</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1520893190332231</v>
+        <v>0.08939125748371879</v>
       </c>
       <c r="D15">
-        <v>0.09998699460826543</v>
+        <v>0.04156128231459277</v>
       </c>
       <c r="E15">
-        <v>0.1410556557639175</v>
+        <v>0.08446992113526264</v>
       </c>
       <c r="F15">
-        <v>2.644391541257505</v>
+        <v>3.169463135142081</v>
       </c>
       <c r="G15">
-        <v>0.002479602778810161</v>
+        <v>0.0007441903455932442</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.892344731923515</v>
+        <v>2.315225497442142</v>
       </c>
       <c r="J15">
-        <v>0.212242960010343</v>
+        <v>0.1551549904189997</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2138322500946614</v>
+        <v>0.1294454315891116</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
-        <v>7.399110234349791</v>
+        <v>9.533706690492807</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1517686642803397</v>
+        <v>0.08595118157973758</v>
       </c>
       <c r="D16">
-        <v>0.100043377243221</v>
+        <v>0.0407156490434204</v>
       </c>
       <c r="E16">
-        <v>0.1407445745287284</v>
+        <v>0.08110691043733809</v>
       </c>
       <c r="F16">
-        <v>2.609680383338599</v>
+        <v>2.98042995373558</v>
       </c>
       <c r="G16">
-        <v>0.002482641103866756</v>
+        <v>0.0007492660150071399</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.866627400008156</v>
+        <v>2.176214731346548</v>
       </c>
       <c r="J16">
-        <v>0.2113040002660753</v>
+        <v>0.1477793611625415</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2133478377320159</v>
+        <v>0.124194159957014</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>7.289529623125077</v>
+        <v>8.952020364007524</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1515865128976159</v>
+        <v>0.08388104293988619</v>
       </c>
       <c r="D17">
-        <v>0.1000846612311186</v>
+        <v>0.04021071887161654</v>
       </c>
       <c r="E17">
-        <v>0.1405678641227261</v>
+        <v>0.07908528023540029</v>
       </c>
       <c r="F17">
-        <v>2.588746795704679</v>
+        <v>2.866316438494124</v>
       </c>
       <c r="G17">
-        <v>0.002484547191223119</v>
+        <v>0.000752402455569458</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.851110453494584</v>
+        <v>2.092294941932622</v>
       </c>
       <c r="J17">
-        <v>0.2107521364256755</v>
+        <v>0.1433414986522905</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2130725588641837</v>
+        <v>0.1210394062391487</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>7.223337734753272</v>
+        <v>8.600830594034733</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1514870994838873</v>
+        <v>0.08270439196372337</v>
       </c>
       <c r="D18">
-        <v>0.1001108709945164</v>
+        <v>0.03992517171066368</v>
       </c>
       <c r="E18">
-        <v>0.1404714198056887</v>
+        <v>0.07793692605197222</v>
       </c>
       <c r="F18">
-        <v>2.57683869061799</v>
+        <v>2.801317027524419</v>
       </c>
       <c r="G18">
-        <v>0.002485659061408373</v>
+        <v>0.0007542154193669326</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.842280860830556</v>
+        <v>2.044492663260016</v>
       </c>
       <c r="J18">
-        <v>0.2104435957162707</v>
+        <v>0.1408189953687682</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2129222743098111</v>
+        <v>0.1192480681599051</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
-        <v>7.185644656866771</v>
+        <v>8.400774115235606</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1514543600112503</v>
+        <v>0.08230834095682837</v>
       </c>
       <c r="D19">
-        <v>0.1001201687867272</v>
+        <v>0.03982930857138456</v>
       </c>
       <c r="E19">
-        <v>0.1404396579129354</v>
+        <v>0.07755051880070596</v>
       </c>
       <c r="F19">
-        <v>2.572829524297447</v>
+        <v>2.77941442788196</v>
       </c>
       <c r="G19">
-        <v>0.002486038194566389</v>
+        <v>0.00075483085527611</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.839307675528005</v>
+        <v>2.028384680295957</v>
       </c>
       <c r="J19">
-        <v>0.2103406536367132</v>
+        <v>0.139969907384895</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2128727731990097</v>
+        <v>0.1186454141996762</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>7.172947420900641</v>
+        <v>8.333358665713945</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1516053490774141</v>
+        <v>0.08409994345900884</v>
       </c>
       <c r="D20">
-        <v>0.100080011521662</v>
+        <v>0.04026396037882307</v>
       </c>
       <c r="E20">
-        <v>0.1405861376677429</v>
+        <v>0.07929897473887593</v>
       </c>
       <c r="F20">
-        <v>2.59096151124956</v>
+        <v>2.878397244568589</v>
       </c>
       <c r="G20">
-        <v>0.002484342677554566</v>
+        <v>0.0007520676619594438</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.852752388202575</v>
+        <v>2.101179375345978</v>
       </c>
       <c r="J20">
-        <v>0.2108099645390737</v>
+        <v>0.1438107668508621</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2131010298467189</v>
+        <v>0.1213728056993588</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.957806003280837</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>7.230344762001494</v>
+        <v>8.63801165106662</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1521766034877317</v>
+        <v>0.09029249411429419</v>
       </c>
       <c r="D21">
-        <v>0.09997450441448663</v>
+        <v>0.0417840658914983</v>
       </c>
       <c r="E21">
-        <v>0.1411403362758747</v>
+        <v>0.08535169067193138</v>
       </c>
       <c r="F21">
-        <v>2.653464900058424</v>
+        <v>3.218878839926219</v>
       </c>
       <c r="G21">
-        <v>0.002478831348389102</v>
+        <v>0.0007428863826643983</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.89906487153209</v>
+        <v>2.351563766883928</v>
       </c>
       <c r="J21">
-        <v>0.2124928504470347</v>
+        <v>0.1570876851750143</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.213964081588955</v>
+        <v>0.1308229720446334</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571254</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>7.427721431513589</v>
+        <v>9.685754735354124</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1525975438852925</v>
+        <v>0.09448124239023059</v>
       </c>
       <c r="D22">
-        <v>0.09992741150920281</v>
+        <v>0.04282561656508221</v>
       </c>
       <c r="E22">
-        <v>0.1415487359093213</v>
+        <v>0.08945384523665822</v>
       </c>
       <c r="F22">
-        <v>2.695496654110883</v>
+        <v>3.448061747678793</v>
       </c>
       <c r="G22">
-        <v>0.002475366889393245</v>
+        <v>0.0007369517750755626</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.930184627031252</v>
+        <v>2.520091484776714</v>
       </c>
       <c r="J22">
-        <v>0.2136717843445766</v>
+        <v>0.1660740297184446</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2145997413840419</v>
+        <v>0.1372352054304642</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.673791817957863</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>7.560104227502791</v>
+        <v>10.39088163052935</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1523685298813149</v>
+        <v>0.09223181951908543</v>
       </c>
       <c r="D23">
-        <v>0.09995054944541693</v>
+        <v>0.04226508048812505</v>
       </c>
       <c r="E23">
-        <v>0.1413265410027016</v>
+        <v>0.08725013275568472</v>
       </c>
       <c r="F23">
-        <v>2.672955164908416</v>
+        <v>3.325081381316807</v>
       </c>
       <c r="G23">
-        <v>0.002477203395437</v>
+        <v>0.0007401138811066254</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.91349734214549</v>
+        <v>2.429659643808051</v>
       </c>
       <c r="J23">
-        <v>0.2130353288470346</v>
+        <v>0.1612474014575938</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2142539289425258</v>
+        <v>0.1337897513687025</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>7.489138602731657</v>
+        <v>10.01251722339543</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1515968167070838</v>
+        <v>0.08400093666293884</v>
       </c>
       <c r="D24">
-        <v>0.100082105944491</v>
+        <v>0.04023987516669081</v>
       </c>
       <c r="E24">
-        <v>0.1405778601597945</v>
+        <v>0.07920232032331853</v>
       </c>
       <c r="F24">
-        <v>2.589959843127247</v>
+        <v>2.872933635284795</v>
       </c>
       <c r="G24">
-        <v>0.002484435088424433</v>
+        <v>0.0007522189915317558</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.852009785137966</v>
+        <v>2.097161346839371</v>
       </c>
       <c r="J24">
-        <v>0.2107837932473444</v>
+        <v>0.1435985211763793</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2130881332683714</v>
+        <v>0.1212220064334488</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>7.227175759008787</v>
+        <v>8.621196374527699</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1509691936213926</v>
+        <v>0.07565175667264867</v>
       </c>
       <c r="D25">
-        <v>0.1003182753274245</v>
+        <v>0.03823967154576025</v>
       </c>
       <c r="E25">
-        <v>0.1399689281676899</v>
+        <v>0.07106524272075632</v>
       </c>
       <c r="F25">
-        <v>2.505493110964139</v>
+        <v>2.40907639956157</v>
       </c>
       <c r="G25">
-        <v>0.002492830271350055</v>
+        <v>0.000765625452632035</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.789328805967443</v>
+        <v>1.756002217701919</v>
       </c>
       <c r="J25">
-        <v>0.208694501666173</v>
+        <v>0.1256911536933458</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2121383810424433</v>
+        <v>0.1085391331382368</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>6.959077938266944</v>
+        <v>7.193165321934657</v>
       </c>
     </row>
   </sheetData>
